--- a/data/trans_orig/P36B13_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{474FE162-8DF1-4C3F-9C56-B11748F93233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E97F03B3-6171-4E4C-8DBB-5DC97C5CE7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F499953B-7BEA-4CE7-BE2E-ED7A1D7CAB38}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E9BF1EB5-EBF7-46A8-8DCB-54337810ED2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="219">
   <si>
     <t>Población que consume comida rápida al menos 3 veces por semana en 2015 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>24,47%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>75,53%</t>
   </si>
   <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>81,16%</t>
   </si>
   <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,580 +138,562 @@
     <t>11,15%</t>
   </si>
   <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>91,2%</t>
   </si>
   <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>11,94%</t>
   </si>
   <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>88,06%</t>
   </si>
   <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>92,47%</t>
   </si>
   <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>92,51%</t>
   </si>
   <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>94,85%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>3,88%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
+    <t>5,94%</t>
   </si>
   <si>
     <t>90,31%</t>
   </si>
   <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>96,12%</t>
   </si>
   <si>
     <t>92,77%</t>
   </si>
   <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
+    <t>94,06%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>9,17%</t>
+    <t>9,19%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>90,83%</t>
+    <t>90,81%</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5DB3E9-EF02-4FE5-9835-12C919390242}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26FB91E-F811-4A7F-9B0C-FC6DF27AD138}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1790,7 +1772,7 @@
         <v>1282</v>
       </c>
       <c r="N14" s="7">
-        <v>1384279</v>
+        <v>1384280</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1841,7 +1823,7 @@
         <v>1428</v>
       </c>
       <c r="N15" s="7">
-        <v>1539099</v>
+        <v>1539100</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1897,13 +1879,13 @@
         <v>172390</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1948,10 +1930,10 @@
         <v>1787369</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>104</v>
@@ -2040,10 +2022,10 @@
         <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>678</v>
@@ -2052,13 +2034,13 @@
         <v>695239</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,16 +2052,16 @@
         <v>2808</v>
       </c>
       <c r="D20" s="7">
-        <v>2954830</v>
+        <v>2954829</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>3046</v>
@@ -2088,13 +2070,13 @@
         <v>3244843</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="M20" s="7">
         <v>5854</v>
@@ -2103,13 +2085,13 @@
         <v>6199672</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,7 +2103,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3373766</v>
+        <v>3373765</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2165,7 +2147,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2186,7 +2168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B0DFC3-919C-49D0-9134-712EE3C85B5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20918C97-06F0-49D9-ACFE-E94BB00DE7F9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2203,7 +2185,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2310,13 +2292,13 @@
         <v>3307</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2325,13 +2307,13 @@
         <v>2475</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -2340,13 +2322,13 @@
         <v>5782</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,13 +2343,13 @@
         <v>97767</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>238</v>
@@ -2376,13 +2358,13 @@
         <v>128258</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>352</v>
@@ -2391,13 +2373,13 @@
         <v>226024</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2447,13 @@
         <v>27650</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -2480,13 +2462,13 @@
         <v>21856</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -2495,13 +2477,13 @@
         <v>49507</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,28 +2498,28 @@
         <v>520668</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>965</v>
       </c>
       <c r="I8" s="7">
-        <v>568303</v>
+        <v>568304</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>1551</v>
@@ -2546,13 +2528,13 @@
         <v>1088971</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,7 +2561,7 @@
         <v>991</v>
       </c>
       <c r="I9" s="7">
-        <v>590159</v>
+        <v>590160</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2620,13 +2602,13 @@
         <v>123962</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -2635,13 +2617,13 @@
         <v>33789</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>91</v>
@@ -2650,13 +2632,13 @@
         <v>157751</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,7 +2653,7 @@
         <v>914414</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>168</v>
@@ -2686,7 +2668,7 @@
         <v>1023779</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>170</v>
@@ -2790,13 +2772,13 @@
         <v>27893</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -2805,13 +2787,13 @@
         <v>82455</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2808,13 @@
         <v>674210</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>1016</v>
@@ -2841,13 +2823,13 @@
         <v>845755</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="M14" s="7">
         <v>1650</v>
@@ -2856,13 +2838,13 @@
         <v>1519965</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2912,13 @@
         <v>93401</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -2945,13 +2927,13 @@
         <v>59185</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="M16" s="7">
         <v>134</v>
@@ -2960,13 +2942,13 @@
         <v>152585</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2963,13 @@
         <v>870974</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>1497</v>
@@ -2996,13 +2978,13 @@
         <v>1086364</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>2428</v>
@@ -3011,13 +2993,13 @@
         <v>1957339</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3067,13 @@
         <v>302882</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H19" s="7">
         <v>158</v>
@@ -3100,13 +3082,13 @@
         <v>145198</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M19" s="7">
         <v>355</v>
@@ -3115,13 +3097,13 @@
         <v>448080</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3118,13 @@
         <v>3078032</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H20" s="7">
         <v>5192</v>
@@ -3151,28 +3133,28 @@
         <v>3652459</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>8366</v>
       </c>
       <c r="N20" s="7">
-        <v>6730492</v>
+        <v>6730491</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,7 +3196,7 @@
         <v>8721</v>
       </c>
       <c r="N21" s="7">
-        <v>7178572</v>
+        <v>7178571</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3228,7 +3210,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E97F03B3-6171-4E4C-8DBB-5DC97C5CE7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D826225-E9A0-4762-8B8B-F587A5D4D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E9BF1EB5-EBF7-46A8-8DCB-54337810ED2F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD0C6F60-6AF7-4B95-AFE9-0C26DDBEF5AF}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="219">
-  <si>
-    <t>Población que consume comida rápida al menos 3 veces por semana en 2015 (Tasa respuesta: 99,44%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="221">
+  <si>
+    <t>Población que consume comida rápida al menos 3 veces por semana en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -75,28 +75,28 @@
     <t>24,47%</t>
   </si>
   <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,546 +105,558 @@
     <t>75,53%</t>
   </si>
   <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>81,16%</t>
   </si>
   <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
   </si>
   <si>
     <t>88,85%</t>
   </si>
   <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
   <si>
     <t>91,52%</t>
   </si>
   <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>90,18%</t>
   </si>
   <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
   </si>
   <si>
     <t>93,06%</t>
   </si>
   <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>91,33%</t>
   </si>
   <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
     <t>94,06%</t>
   </si>
   <si>
@@ -669,9 +681,6 @@
     <t>6,24%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
     <t>91,04%</t>
   </si>
   <si>
@@ -691,9 +700,6 @@
   </si>
   <si>
     <t>93,76%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26FB91E-F811-4A7F-9B0C-FC6DF27AD138}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD215B0B-DBD6-4032-AA07-2ADC99295AD7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1727,10 +1733,10 @@
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,13 +1751,13 @@
         <v>657452</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>681</v>
@@ -1760,28 +1766,28 @@
         <v>726828</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1282</v>
       </c>
       <c r="N14" s="7">
-        <v>1384280</v>
+        <v>1384279</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,7 +1829,7 @@
         <v>1428</v>
       </c>
       <c r="N15" s="7">
-        <v>1539100</v>
+        <v>1539099</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1837,7 +1843,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1849,13 +1855,13 @@
         <v>101552</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -1864,13 +1870,13 @@
         <v>70839</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -1879,13 +1885,13 @@
         <v>172390</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,13 +1906,13 @@
         <v>826633</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>879</v>
@@ -1915,13 +1921,13 @@
         <v>960735</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1699</v>
@@ -1930,13 +1936,13 @@
         <v>1787369</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,13 +2010,13 @@
         <v>418936</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>273</v>
@@ -2019,13 +2025,13 @@
         <v>276303</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>678</v>
@@ -2034,13 +2040,13 @@
         <v>695239</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,16 +2058,16 @@
         <v>2808</v>
       </c>
       <c r="D20" s="7">
-        <v>2954829</v>
+        <v>2954830</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>3046</v>
@@ -2070,13 +2076,13 @@
         <v>3244843</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M20" s="7">
         <v>5854</v>
@@ -2103,7 +2109,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3373765</v>
+        <v>3373766</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2168,7 +2174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20918C97-06F0-49D9-ACFE-E94BB00DE7F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E687FFA-B4D5-4E05-8923-E9926ED24B85}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2900,7 +2906,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2933,7 +2939,7 @@
         <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>134</v>
@@ -2942,13 +2948,13 @@
         <v>152585</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2969,13 @@
         <v>870974</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>1497</v>
@@ -2978,13 +2984,13 @@
         <v>1086364</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>2428</v>
@@ -2993,13 +2999,13 @@
         <v>1957339</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3073,13 @@
         <v>302882</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>158</v>
@@ -3082,13 +3088,13 @@
         <v>145198</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>355</v>
@@ -3097,13 +3103,13 @@
         <v>448080</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>210</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3124,13 @@
         <v>3078032</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>5192</v>
@@ -3133,13 +3139,13 @@
         <v>3652459</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>8366</v>
@@ -3148,10 +3154,10 @@
         <v>6730491</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>139</v>

--- a/data/trans_orig/P36B13_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D826225-E9A0-4762-8B8B-F587A5D4D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DC8DC97-D994-4ABF-B441-4FF64E5CDC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD0C6F60-6AF7-4B95-AFE9-0C26DDBEF5AF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{632B8414-092F-4178-B44C-2765989EF25C}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="225">
   <si>
     <t>Población que consume comida rápida al menos 3 veces por semana en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>24,47%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>75,53%</t>
   </si>
   <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>81,16%</t>
   </si>
   <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>11,15%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
   </si>
   <si>
     <t>88,85%</t>
   </si>
   <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
   </si>
   <si>
     <t>91,52%</t>
   </si>
   <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>90,18%</t>
   </si>
   <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -195,55 +195,55 @@
     <t>12,59%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
   </si>
   <si>
     <t>87,41%</t>
   </si>
   <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
   </si>
   <si>
     <t>91,54%</t>
   </si>
   <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -252,16 +252,16 @@
     <t>13,11%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>5,46%</t>
+    <t>5,47%</t>
   </si>
   <si>
     <t>9,14%</t>
@@ -270,16 +270,19 @@
     <t>10,06%</t>
   </si>
   <si>
-    <t>11,74%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>86,89%</t>
   </si>
   <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>92,89%</t>
@@ -288,13 +291,16 @@
     <t>90,86%</t>
   </si>
   <si>
-    <t>94,54%</t>
+    <t>94,53%</t>
   </si>
   <si>
     <t>89,94%</t>
   </si>
   <si>
-    <t>88,26%</t>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -303,103 +309,103 @@
     <t>10,94%</t>
   </si>
   <si>
-    <t>9,19%</t>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
   <si>
     <t>89,06%</t>
   </si>
   <si>
-    <t>90,81%</t>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
   </si>
   <si>
     <t>93,13%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
   </si>
   <si>
     <t>12,42%</t>
   </si>
   <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
   </si>
   <si>
     <t>87,58%</t>
   </si>
   <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
   </si>
   <si>
     <t>92,15%</t>
   </si>
   <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>89,92%</t>
   </si>
   <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -411,73 +417,73 @@
     <t>3,27%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
   </si>
   <si>
     <t>4,35%</t>
@@ -486,220 +492,226 @@
     <t>3,19%</t>
   </si>
   <si>
-    <t>5,78%</t>
+    <t>5,83%</t>
   </si>
   <si>
     <t>94,96%</t>
   </si>
   <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>96,3%</t>
   </si>
   <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>94,22%</t>
+    <t>94,17%</t>
   </si>
   <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>92,47%</t>
   </si>
   <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>92,51%</t>
   </si>
   <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>94,85%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>90,31%</t>
   </si>
   <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>92,77%</t>
   </si>
   <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
+    <t>9,17%</t>
+  </si>
+  <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>93,76%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD215B0B-DBD6-4032-AA07-2ADC99295AD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFAFAAD-485E-46CD-807B-6C48CA3CD8D8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1733,10 +1745,10 @@
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,13 +1763,13 @@
         <v>657452</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>681</v>
@@ -1766,13 +1778,13 @@
         <v>726828</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1282</v>
@@ -1781,13 +1793,13 @@
         <v>1384279</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1843,7 +1855,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1855,13 +1867,13 @@
         <v>101552</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -1870,13 +1882,13 @@
         <v>70839</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -1885,13 +1897,13 @@
         <v>172390</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1918,13 @@
         <v>826633</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>879</v>
@@ -1921,13 +1933,13 @@
         <v>960735</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1699</v>
@@ -1936,13 +1948,13 @@
         <v>1787369</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,13 +2022,13 @@
         <v>418936</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>273</v>
@@ -2025,13 +2037,13 @@
         <v>276303</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>678</v>
@@ -2040,13 +2052,13 @@
         <v>695239</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,13 +2073,13 @@
         <v>2954830</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>3046</v>
@@ -2076,13 +2088,13 @@
         <v>3244843</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>5854</v>
@@ -2091,13 +2103,13 @@
         <v>6199672</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,7 +2165,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E687FFA-B4D5-4E05-8923-E9926ED24B85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F3AF0D-7984-4875-9928-9EFDF40196CB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2191,7 +2203,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2298,13 +2310,13 @@
         <v>3307</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2313,13 +2325,13 @@
         <v>2475</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -2328,13 +2340,13 @@
         <v>5782</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2361,13 @@
         <v>97767</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>238</v>
@@ -2364,13 +2376,13 @@
         <v>128258</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>352</v>
@@ -2379,13 +2391,13 @@
         <v>226024</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,13 +2465,13 @@
         <v>27650</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -2468,13 +2480,13 @@
         <v>21856</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -2483,13 +2495,13 @@
         <v>49507</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,28 +2516,28 @@
         <v>520668</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>965</v>
       </c>
       <c r="I8" s="7">
-        <v>568304</v>
+        <v>568303</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>1551</v>
@@ -2534,13 +2546,13 @@
         <v>1088971</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,7 +2579,7 @@
         <v>991</v>
       </c>
       <c r="I9" s="7">
-        <v>590160</v>
+        <v>590159</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2608,13 +2620,13 @@
         <v>123962</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -2623,13 +2635,13 @@
         <v>33789</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>91</v>
@@ -2638,13 +2650,13 @@
         <v>157751</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,7 +2671,7 @@
         <v>914414</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>168</v>
@@ -2674,7 +2686,7 @@
         <v>1023779</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>170</v>
@@ -2778,13 +2790,13 @@
         <v>27893</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -2793,13 +2805,13 @@
         <v>82455</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2826,13 @@
         <v>674210</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>1016</v>
@@ -2829,13 +2841,13 @@
         <v>845755</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>1650</v>
@@ -2844,13 +2856,13 @@
         <v>1519965</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,7 +2918,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2918,13 +2930,13 @@
         <v>93401</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -2933,13 +2945,13 @@
         <v>59185</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>134</v>
@@ -2948,13 +2960,13 @@
         <v>152585</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2981,13 @@
         <v>870974</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>1497</v>
@@ -2984,13 +2996,13 @@
         <v>1086364</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>2428</v>
@@ -2999,13 +3011,13 @@
         <v>1957339</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3085,13 @@
         <v>302882</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>158</v>
@@ -3088,13 +3100,13 @@
         <v>145198</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>355</v>
@@ -3103,13 +3115,13 @@
         <v>448080</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3136,13 @@
         <v>3078032</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>5192</v>
@@ -3139,28 +3151,28 @@
         <v>3652459</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M20" s="7">
         <v>8366</v>
       </c>
       <c r="N20" s="7">
-        <v>6730491</v>
+        <v>6730492</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,7 +3214,7 @@
         <v>8721</v>
       </c>
       <c r="N21" s="7">
-        <v>7178571</v>
+        <v>7178572</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3216,7 +3228,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DC8DC97-D994-4ABF-B441-4FF64E5CDC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A263373-4A1D-4D88-B7AE-A8BAB90E2B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{632B8414-092F-4178-B44C-2765989EF25C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1C3BA024-64BE-4B9E-B7CC-C974D2D73802}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="196">
   <si>
     <t>Población que consume comida rápida al menos 3 veces por semana en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -66,288 +66,237 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>91,2%</t>
   </si>
   <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
     <t>89,75%</t>
   </si>
   <si>
@@ -414,304 +363,268 @@
     <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
   </si>
   <si>
     <t>95,49%</t>
   </si>
   <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
 </sst>
 </file>
@@ -1123,8 +1036,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFAFAAD-485E-46CD-807B-6C48CA3CD8D8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C21582E-3883-403F-8ABC-172569694AA6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1241,10 +1154,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D4" s="7">
-        <v>27864</v>
+        <v>89996</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1256,10 +1169,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I4" s="7">
-        <v>14950</v>
+        <v>61758</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1271,10 +1184,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="N4" s="7">
-        <v>42814</v>
+        <v>151754</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1292,10 +1205,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>82</v>
+        <v>559</v>
       </c>
       <c r="D5" s="7">
-        <v>85987</v>
+        <v>580941</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1307,10 +1220,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>99</v>
+        <v>595</v>
       </c>
       <c r="I5" s="7">
-        <v>98410</v>
+        <v>603822</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1322,10 +1235,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>181</v>
+        <v>1154</v>
       </c>
       <c r="N5" s="7">
-        <v>184397</v>
+        <v>1184763</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1343,10 +1256,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>111</v>
+        <v>649</v>
       </c>
       <c r="D6" s="7">
-        <v>113851</v>
+        <v>670937</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1358,10 +1271,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>659</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>665580</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1373,10 +1286,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>226</v>
+        <v>1308</v>
       </c>
       <c r="N6" s="7">
-        <v>227211</v>
+        <v>1336517</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1396,10 +1309,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="D7" s="7">
-        <v>62132</v>
+        <v>128161</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1411,10 +1324,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="I7" s="7">
-        <v>46808</v>
+        <v>88114</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1426,10 +1339,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="N7" s="7">
-        <v>108940</v>
+        <v>216275</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1447,10 +1360,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>477</v>
+        <v>828</v>
       </c>
       <c r="D8" s="7">
-        <v>494954</v>
+        <v>889803</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1462,10 +1375,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>496</v>
+        <v>891</v>
       </c>
       <c r="I8" s="7">
-        <v>505412</v>
+        <v>953457</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1477,10 +1390,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>973</v>
+        <v>1719</v>
       </c>
       <c r="N8" s="7">
-        <v>1000366</v>
+        <v>1843260</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1498,10 +1411,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>538</v>
+        <v>947</v>
       </c>
       <c r="D9" s="7">
-        <v>557086</v>
+        <v>1017964</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1513,10 +1426,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>544</v>
+        <v>976</v>
       </c>
       <c r="I9" s="7">
-        <v>552220</v>
+        <v>1041571</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1528,10 +1441,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1082</v>
+        <v>1923</v>
       </c>
       <c r="N9" s="7">
-        <v>1109306</v>
+        <v>2059535</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1551,10 +1464,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7">
-        <v>128161</v>
+        <v>99227</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1566,10 +1479,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>88114</v>
+        <v>55592</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1581,10 +1494,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="N10" s="7">
-        <v>216275</v>
+        <v>154820</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1602,10 +1515,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>828</v>
+        <v>601</v>
       </c>
       <c r="D11" s="7">
-        <v>889803</v>
+        <v>657452</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1617,10 +1530,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>891</v>
+        <v>681</v>
       </c>
       <c r="I11" s="7">
-        <v>953457</v>
+        <v>726828</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1632,10 +1545,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1719</v>
+        <v>1282</v>
       </c>
       <c r="N11" s="7">
-        <v>1843260</v>
+        <v>1384279</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1653,10 +1566,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>947</v>
+        <v>694</v>
       </c>
       <c r="D12" s="7">
-        <v>1017964</v>
+        <v>756679</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1668,10 +1581,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>976</v>
+        <v>734</v>
       </c>
       <c r="I12" s="7">
-        <v>1041571</v>
+        <v>782420</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1683,10 +1596,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1923</v>
+        <v>1428</v>
       </c>
       <c r="N12" s="7">
-        <v>2059535</v>
+        <v>1539099</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1706,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D13" s="7">
-        <v>99227</v>
+        <v>101552</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1721,10 +1634,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="I13" s="7">
-        <v>55592</v>
+        <v>70839</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1736,10 +1649,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="N13" s="7">
-        <v>154820</v>
+        <v>172390</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1757,10 +1670,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>601</v>
+        <v>820</v>
       </c>
       <c r="D14" s="7">
-        <v>657452</v>
+        <v>826633</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1772,10 +1685,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>681</v>
+        <v>879</v>
       </c>
       <c r="I14" s="7">
-        <v>726828</v>
+        <v>960735</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1787,10 +1700,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1282</v>
+        <v>1699</v>
       </c>
       <c r="N14" s="7">
-        <v>1384279</v>
+        <v>1787369</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1808,10 +1721,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>694</v>
+        <v>923</v>
       </c>
       <c r="D15" s="7">
-        <v>756679</v>
+        <v>928185</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1823,10 +1736,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>734</v>
+        <v>950</v>
       </c>
       <c r="I15" s="7">
-        <v>782420</v>
+        <v>1031574</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1838,10 +1751,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1428</v>
+        <v>1873</v>
       </c>
       <c r="N15" s="7">
-        <v>1539099</v>
+        <v>1959759</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1855,49 +1768,49 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>103</v>
+        <v>405</v>
       </c>
       <c r="D16" s="7">
-        <v>101552</v>
+        <v>418936</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>273</v>
+      </c>
+      <c r="I16" s="7">
+        <v>276303</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>71</v>
-      </c>
-      <c r="I16" s="7">
-        <v>70839</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>678</v>
+      </c>
+      <c r="N16" s="7">
+        <v>695239</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>174</v>
-      </c>
-      <c r="N16" s="7">
-        <v>172390</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>95</v>
@@ -1912,10 +1825,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>820</v>
+        <v>2808</v>
       </c>
       <c r="D17" s="7">
-        <v>826633</v>
+        <v>2954829</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -1927,10 +1840,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>879</v>
+        <v>3046</v>
       </c>
       <c r="I17" s="7">
-        <v>960735</v>
+        <v>3244843</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -1942,19 +1855,19 @@
         <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>1699</v>
+        <v>5854</v>
       </c>
       <c r="N17" s="7">
-        <v>1787369</v>
+        <v>6199672</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,10 +1876,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>923</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>928185</v>
+        <v>3373765</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1978,10 +1891,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>950</v>
+        <v>3319</v>
       </c>
       <c r="I18" s="7">
-        <v>1031574</v>
+        <v>3521146</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1993,10 +1906,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1873</v>
+        <v>6532</v>
       </c>
       <c r="N18" s="7">
-        <v>1959759</v>
+        <v>6894911</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2009,171 +1922,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>405</v>
-      </c>
-      <c r="D19" s="7">
-        <v>418936</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>273</v>
-      </c>
-      <c r="I19" s="7">
-        <v>276303</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>678</v>
-      </c>
-      <c r="N19" s="7">
-        <v>695239</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2808</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2954830</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3046</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3244843</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5854</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6199672</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3373766</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3319</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3521146</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6532</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6894911</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2186,8 +1943,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F3AF0D-7984-4875-9928-9EFDF40196CB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F7C52F-E39D-4840-BD15-122182EC1E14}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2203,7 +1960,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2304,49 +2061,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>3307</v>
+        <v>28547</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I4" s="7">
-        <v>2475</v>
+        <v>22576</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="N4" s="7">
-        <v>5782</v>
+        <v>51124</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,49 +2112,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>114</v>
+        <v>700</v>
       </c>
       <c r="D5" s="7">
-        <v>97767</v>
+        <v>604584</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>238</v>
+        <v>1203</v>
       </c>
       <c r="I5" s="7">
-        <v>128258</v>
+        <v>650555</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>352</v>
+        <v>1903</v>
       </c>
       <c r="N5" s="7">
-        <v>226024</v>
+        <v>1255139</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,10 +2163,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>727</v>
       </c>
       <c r="D6" s="7">
-        <v>101074</v>
+        <v>633131</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2421,10 +2178,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1234</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>673131</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2436,10 +2193,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1961</v>
       </c>
       <c r="N6" s="7">
-        <v>231806</v>
+        <v>1306263</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2459,49 +2216,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7">
-        <v>27650</v>
+        <v>311371</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7">
-        <v>21856</v>
+        <v>29324</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="N7" s="7">
-        <v>49507</v>
+        <v>340695</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,49 +2267,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>586</v>
+        <v>909</v>
       </c>
       <c r="D8" s="7">
-        <v>520668</v>
+        <v>880656</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>965</v>
+        <v>1476</v>
       </c>
       <c r="I8" s="7">
-        <v>568303</v>
+        <v>927002</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>1551</v>
+        <v>2385</v>
       </c>
       <c r="N8" s="7">
-        <v>1088971</v>
+        <v>1807658</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,10 +2318,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>610</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>548318</v>
+        <v>1192027</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2576,10 +2333,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>991</v>
+        <v>1513</v>
       </c>
       <c r="I9" s="7">
-        <v>590159</v>
+        <v>956326</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2591,10 +2348,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1601</v>
+        <v>2476</v>
       </c>
       <c r="N9" s="7">
-        <v>1138478</v>
+        <v>2148353</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2614,49 +2371,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7">
-        <v>123962</v>
+        <v>51508</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>33789</v>
+        <v>24804</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M10" s="7">
+        <v>72</v>
+      </c>
+      <c r="N10" s="7">
+        <v>76312</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M10" s="7">
-        <v>91</v>
-      </c>
-      <c r="N10" s="7">
-        <v>157751</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,49 +2422,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>909</v>
+        <v>634</v>
       </c>
       <c r="D11" s="7">
-        <v>914414</v>
+        <v>653172</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>1476</v>
+        <v>1016</v>
       </c>
       <c r="I11" s="7">
-        <v>1023779</v>
+        <v>907903</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1650</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1561076</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M11" s="7">
-        <v>2385</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1938193</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,10 +2473,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1038376</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2731,10 +2488,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1513</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1057568</v>
+        <v>932707</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2746,10 +2503,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2476</v>
+        <v>1722</v>
       </c>
       <c r="N12" s="7">
-        <v>2095944</v>
+        <v>1637388</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2769,49 +2526,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D13" s="7">
-        <v>54562</v>
+        <v>85835</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I13" s="7">
-        <v>27893</v>
+        <v>49614</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="N13" s="7">
-        <v>82455</v>
+        <v>135449</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,49 +2577,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>634</v>
+        <v>931</v>
       </c>
       <c r="D14" s="7">
-        <v>674210</v>
+        <v>839997</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>1016</v>
+        <v>1497</v>
       </c>
       <c r="I14" s="7">
-        <v>845755</v>
+        <v>1040755</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>1650</v>
+        <v>2428</v>
       </c>
       <c r="N14" s="7">
-        <v>1519965</v>
+        <v>1880752</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,10 +2628,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>925832</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2886,10 +2643,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1557</v>
       </c>
       <c r="I15" s="7">
-        <v>873648</v>
+        <v>1090369</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2901,10 +2658,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1722</v>
+        <v>2562</v>
       </c>
       <c r="N15" s="7">
-        <v>1602420</v>
+        <v>2016201</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2918,55 +2675,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="D16" s="7">
-        <v>93401</v>
+        <v>477261</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="I16" s="7">
-        <v>59185</v>
+        <v>126318</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
-        <v>134</v>
+        <v>355</v>
       </c>
       <c r="N16" s="7">
-        <v>152585</v>
+        <v>603580</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,49 +2732,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>931</v>
+        <v>3174</v>
       </c>
       <c r="D17" s="7">
-        <v>870974</v>
+        <v>2978410</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
-        <v>1497</v>
+        <v>5192</v>
       </c>
       <c r="I17" s="7">
-        <v>1086364</v>
+        <v>3526216</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>2428</v>
+        <v>8366</v>
       </c>
       <c r="N17" s="7">
-        <v>1957339</v>
+        <v>6504624</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,10 +2783,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3371</v>
       </c>
       <c r="D18" s="7">
-        <v>964375</v>
+        <v>3455671</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3041,10 +2798,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1557</v>
+        <v>5350</v>
       </c>
       <c r="I18" s="7">
-        <v>1145549</v>
+        <v>3652534</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3056,10 +2813,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2562</v>
+        <v>8721</v>
       </c>
       <c r="N18" s="7">
-        <v>2109924</v>
+        <v>7108204</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3072,171 +2829,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>197</v>
-      </c>
-      <c r="D19" s="7">
-        <v>302882</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="7">
-        <v>158</v>
-      </c>
-      <c r="I19" s="7">
-        <v>145198</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M19" s="7">
-        <v>355</v>
-      </c>
-      <c r="N19" s="7">
-        <v>448080</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3174</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3078032</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5192</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3652459</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8366</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6730492</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3371</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3380914</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5350</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3797657</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8721</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7178572</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
